--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound9.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound9.xlsx
@@ -118,6 +118,15 @@
     <t>Fort Lauderdale, FL</t>
   </si>
   <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Houston, TX</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
@@ -125,15 +134,6 @@
   </si>
   <si>
     <t>Carson, CA</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Houston, TX</t>
   </si>
 </sst>
 </file>
@@ -197,6 +197,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFF9E200"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF99EAFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -206,22 +222,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC81A2E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFF9E200"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -280,6 +280,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF020001"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF10069E"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -287,18 +299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF031E41"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF020001"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,23 +755,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.4427612821594045</v>
+        <v>0.3957112198070921</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.2541004509256221</v>
+        <v>0.304662991327884</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.4787418508736216</v>
+        <v>0.4884482261976567</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.5521334903746893</v>
+        <v>0.7161325120091804</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.7164463634974823</v>
+        <v>0.5371940773511206</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -780,23 +780,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.9052671620984045</v>
+        <v>0.9001645871924207</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.5497221993560044</v>
+        <v>0.5360780992955518</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.9882370645119141</v>
+        <v>0.9877605549450754</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.6759330880330535</v>
+        <v>0.9732763795403392</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.974356187265112</v>
+        <v>0.6627036164838891</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -805,23 +805,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>40.0817249387495</v>
+        <v>35.62052268250604</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>13.96846587401854</v>
+        <v>16.33231573167493</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>47.31104413663483</v>
+        <v>48.24698909709351</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>37.3205295155432</v>
+        <v>69.69948585594236</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>69.80739471173614</v>
+        <v>35.60004578143137</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -830,34 +830,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.6791835000000001</v>
+        <v>0.6673365999999999</v>
       </c>
       <c r="C6" s="14">
-        <v>0.3208165</v>
+        <v>0.3085402</v>
       </c>
       <c r="E6" s="14">
-        <v>0.1272048</v>
+        <v>0.1207218</v>
       </c>
       <c r="F6" s="14">
-        <v>0.8727952</v>
+        <v>0.8659712000000001</v>
       </c>
       <c r="H6" s="14">
-        <v>0.4362377</v>
+        <v>0.42503</v>
       </c>
       <c r="I6" s="14">
-        <v>0.5637623</v>
+        <v>0.5521344</v>
       </c>
       <c r="K6" s="14">
-        <v>0.1781137</v>
+        <v>0.5818942</v>
       </c>
       <c r="L6" s="14">
-        <v>0.8218863</v>
+        <v>0.3945376</v>
       </c>
       <c r="N6" s="14">
-        <v>0.593993</v>
+        <v>0.1689628</v>
       </c>
       <c r="O6" s="14">
-        <v>0.406007</v>
+        <v>0.8122612</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -865,34 +865,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>25.828692</v>
+        <v>25.832037</v>
       </c>
       <c r="C7" s="15">
-        <v>18.4753124</v>
+        <v>18.4675228</v>
       </c>
       <c r="E7" s="15">
-        <v>22.5783988</v>
+        <v>22.5780532</v>
       </c>
       <c r="F7" s="15">
-        <v>46.092299</v>
+        <v>46.094259</v>
       </c>
       <c r="H7" s="15">
-        <v>26.3098534</v>
+        <v>26.3216242</v>
       </c>
       <c r="I7" s="15">
-        <v>29.2118154</v>
+        <v>29.219633</v>
       </c>
       <c r="K7" s="15">
-        <v>18.013091</v>
+        <v>27.7062912</v>
       </c>
       <c r="L7" s="15">
-        <v>34.6104594</v>
+        <v>23.8009922</v>
       </c>
       <c r="N7" s="15">
-        <v>27.7094142</v>
+        <v>18.0235548</v>
       </c>
       <c r="O7" s="15">
-        <v>23.7922248</v>
+        <v>34.6153508</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -918,16 +918,16 @@
         <v>10</v>
       </c>
       <c r="K8" s="15">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15">
+        <v>7</v>
+      </c>
+      <c r="N8" s="15">
         <v>3</v>
       </c>
-      <c r="L8" s="15">
+      <c r="O8" s="15">
         <v>12</v>
-      </c>
-      <c r="N8" s="15">
-        <v>10</v>
-      </c>
-      <c r="O8" s="15">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -953,16 +953,16 @@
         <v>13</v>
       </c>
       <c r="K9" s="15">
+        <v>13</v>
+      </c>
+      <c r="L9" s="15">
+        <v>10</v>
+      </c>
+      <c r="N9" s="15">
         <v>5</v>
       </c>
-      <c r="L9" s="15">
+      <c r="O9" s="15">
         <v>17</v>
-      </c>
-      <c r="N9" s="15">
-        <v>13</v>
-      </c>
-      <c r="O9" s="15">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -988,16 +988,16 @@
         <v>16</v>
       </c>
       <c r="K10" s="15">
+        <v>15</v>
+      </c>
+      <c r="L10" s="15">
+        <v>12</v>
+      </c>
+      <c r="N10" s="15">
         <v>7</v>
       </c>
-      <c r="L10" s="15">
+      <c r="O10" s="15">
         <v>19</v>
-      </c>
-      <c r="N10" s="15">
-        <v>15</v>
-      </c>
-      <c r="O10" s="15">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1023,16 +1023,16 @@
         <v>18</v>
       </c>
       <c r="K11" s="15">
+        <v>17</v>
+      </c>
+      <c r="L11" s="15">
+        <v>14</v>
+      </c>
+      <c r="N11" s="15">
         <v>8</v>
       </c>
-      <c r="L11" s="15">
+      <c r="O11" s="15">
         <v>22</v>
-      </c>
-      <c r="N11" s="15">
-        <v>17</v>
-      </c>
-      <c r="O11" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1058,16 +1058,16 @@
         <v>20</v>
       </c>
       <c r="K12" s="15">
+        <v>19</v>
+      </c>
+      <c r="L12" s="15">
+        <v>15</v>
+      </c>
+      <c r="N12" s="15">
         <v>10</v>
       </c>
-      <c r="L12" s="15">
+      <c r="O12" s="15">
         <v>24</v>
-      </c>
-      <c r="N12" s="15">
-        <v>19</v>
-      </c>
-      <c r="O12" s="15">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1093,16 +1093,16 @@
         <v>22</v>
       </c>
       <c r="K13" s="15">
+        <v>21</v>
+      </c>
+      <c r="L13" s="15">
+        <v>17</v>
+      </c>
+      <c r="N13" s="15">
         <v>12</v>
       </c>
-      <c r="L13" s="15">
+      <c r="O13" s="15">
         <v>26</v>
-      </c>
-      <c r="N13" s="15">
-        <v>21</v>
-      </c>
-      <c r="O13" s="15">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1128,16 +1128,16 @@
         <v>23</v>
       </c>
       <c r="K14" s="15">
+        <v>22</v>
+      </c>
+      <c r="L14" s="15">
+        <v>18</v>
+      </c>
+      <c r="N14" s="15">
         <v>13</v>
       </c>
-      <c r="L14" s="15">
+      <c r="O14" s="15">
         <v>28</v>
-      </c>
-      <c r="N14" s="15">
-        <v>22</v>
-      </c>
-      <c r="O14" s="15">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1163,16 +1163,16 @@
         <v>25</v>
       </c>
       <c r="K15" s="15">
+        <v>24</v>
+      </c>
+      <c r="L15" s="15">
+        <v>20</v>
+      </c>
+      <c r="N15" s="15">
         <v>14</v>
       </c>
-      <c r="L15" s="15">
+      <c r="O15" s="15">
         <v>30</v>
-      </c>
-      <c r="N15" s="15">
-        <v>24</v>
-      </c>
-      <c r="O15" s="15">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1198,16 +1198,16 @@
         <v>27</v>
       </c>
       <c r="K16" s="15">
+        <v>25</v>
+      </c>
+      <c r="L16" s="15">
+        <v>21</v>
+      </c>
+      <c r="N16" s="15">
         <v>15</v>
       </c>
-      <c r="L16" s="15">
+      <c r="O16" s="15">
         <v>31</v>
-      </c>
-      <c r="N16" s="15">
-        <v>25</v>
-      </c>
-      <c r="O16" s="15">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1233,16 +1233,16 @@
         <v>28</v>
       </c>
       <c r="K17" s="15">
+        <v>27</v>
+      </c>
+      <c r="L17" s="15">
+        <v>23</v>
+      </c>
+      <c r="N17" s="15">
         <v>17</v>
       </c>
-      <c r="L17" s="15">
+      <c r="O17" s="15">
         <v>34</v>
-      </c>
-      <c r="N17" s="15">
-        <v>27</v>
-      </c>
-      <c r="O17" s="15">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1268,16 +1268,16 @@
         <v>30</v>
       </c>
       <c r="K18" s="15">
+        <v>28</v>
+      </c>
+      <c r="L18" s="15">
+        <v>24</v>
+      </c>
+      <c r="N18" s="15">
         <v>19</v>
       </c>
-      <c r="L18" s="15">
+      <c r="O18" s="15">
         <v>35</v>
-      </c>
-      <c r="N18" s="15">
-        <v>28</v>
-      </c>
-      <c r="O18" s="15">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1303,16 +1303,16 @@
         <v>32</v>
       </c>
       <c r="K19" s="15">
+        <v>30</v>
+      </c>
+      <c r="L19" s="15">
+        <v>26</v>
+      </c>
+      <c r="N19" s="15">
         <v>19</v>
       </c>
-      <c r="L19" s="15">
+      <c r="O19" s="15">
         <v>38</v>
-      </c>
-      <c r="N19" s="15">
-        <v>30</v>
-      </c>
-      <c r="O19" s="15">
-        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1338,16 +1338,16 @@
         <v>33</v>
       </c>
       <c r="K20" s="15">
+        <v>32</v>
+      </c>
+      <c r="L20" s="15">
+        <v>27</v>
+      </c>
+      <c r="N20" s="15">
         <v>21</v>
       </c>
-      <c r="L20" s="15">
+      <c r="O20" s="15">
         <v>39</v>
-      </c>
-      <c r="N20" s="15">
-        <v>32</v>
-      </c>
-      <c r="O20" s="15">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1358,7 +1358,7 @@
         <v>31</v>
       </c>
       <c r="C21" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="15">
         <v>28</v>
@@ -1373,16 +1373,16 @@
         <v>35</v>
       </c>
       <c r="K21" s="15">
+        <v>33</v>
+      </c>
+      <c r="L21" s="15">
+        <v>29</v>
+      </c>
+      <c r="N21" s="15">
         <v>22</v>
       </c>
-      <c r="L21" s="15">
+      <c r="O21" s="15">
         <v>42</v>
-      </c>
-      <c r="N21" s="15">
-        <v>33</v>
-      </c>
-      <c r="O21" s="15">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1405,19 +1405,19 @@
         <v>34</v>
       </c>
       <c r="I22" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="15">
+        <v>35</v>
+      </c>
+      <c r="L22" s="15">
+        <v>31</v>
+      </c>
+      <c r="N22" s="15">
         <v>24</v>
       </c>
-      <c r="L22" s="15">
+      <c r="O22" s="15">
         <v>44</v>
-      </c>
-      <c r="N22" s="15">
-        <v>35</v>
-      </c>
-      <c r="O22" s="15">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1443,16 +1443,16 @@
         <v>40</v>
       </c>
       <c r="K23" s="15">
+        <v>38</v>
+      </c>
+      <c r="L23" s="15">
+        <v>33</v>
+      </c>
+      <c r="N23" s="15">
         <v>26</v>
       </c>
-      <c r="L23" s="15">
+      <c r="O23" s="15">
         <v>47</v>
-      </c>
-      <c r="N23" s="15">
-        <v>38</v>
-      </c>
-      <c r="O23" s="15">
-        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1478,16 +1478,16 @@
         <v>43</v>
       </c>
       <c r="K24" s="15">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15">
+        <v>36</v>
+      </c>
+      <c r="N24" s="15">
         <v>29</v>
       </c>
-      <c r="L24" s="15">
+      <c r="O24" s="15">
         <v>50</v>
-      </c>
-      <c r="N24" s="15">
-        <v>40</v>
-      </c>
-      <c r="O24" s="15">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1513,16 +1513,16 @@
         <v>47</v>
       </c>
       <c r="K25" s="15">
+        <v>44</v>
+      </c>
+      <c r="L25" s="15">
+        <v>39</v>
+      </c>
+      <c r="N25" s="15">
         <v>32</v>
       </c>
-      <c r="L25" s="15">
+      <c r="O25" s="15">
         <v>54</v>
-      </c>
-      <c r="N25" s="15">
-        <v>44</v>
-      </c>
-      <c r="O25" s="15">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1548,16 +1548,16 @@
         <v>53</v>
       </c>
       <c r="K26" s="15">
+        <v>49</v>
+      </c>
+      <c r="L26" s="15">
+        <v>44</v>
+      </c>
+      <c r="N26" s="15">
         <v>37</v>
       </c>
-      <c r="L26" s="15">
+      <c r="O26" s="15">
         <v>61</v>
-      </c>
-      <c r="N26" s="15">
-        <v>49</v>
-      </c>
-      <c r="O26" s="15">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
